--- a/trans_data/merged_file.xlsx
+++ b/trans_data/merged_file.xlsx
@@ -529,217 +529,217 @@
       </c>
       <c r="V1" t="inlineStr">
         <is>
+          <t>股本总额</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>定期存款</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>甲种活期存款</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>乙种活期存款</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>杂项存款</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>外埠同业存款</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>公积金</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>特别公积金</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>代收款项</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>未付股息</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>本年盈余</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>往来存款</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>透支各同业</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>各项开支</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>摊提生财</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>拨入公积</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>纯益</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>利息</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>汇水</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>手续费</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>上年滚存</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>未收股本</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>活期及定期放款</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>其他资产</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>营业用器具</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>兑换券准备金</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>现金_库存</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>现金_存放同业</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>各项放款</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>本期纯损</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>股本总额</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>定期存款</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>甲种活期存款</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>乙种活期存款</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>杂项存款</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>外埠同业存款</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>公积金</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>特别公积金</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>代收款项</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>未付股息</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>本年盈余</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>往来存款</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>透支各同业</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>发行兑换券</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>活期及定期存款</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>本年纯益</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>各项存款</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>其他负债</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>各项开支</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>摊提生财</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>拨入公积</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>纯益</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>摊提器具</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
         <is>
           <t>合计</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>利息</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>汇水</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>手续费</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>上年滚存</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>有价证券损益</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>杂损益</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>本期利益</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
         <is>
           <t>合计</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>未收股本</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>活期及定期放款</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>其他资产</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>营业用器具</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>兑换券准备金</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>现金_库存</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>现金_存放同业</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>各项放款</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>本期纯损</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>发行兑换券</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>活期及定期存款</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>本年纯益</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>各项存款</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>其他负债</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>摊提器具</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>有价证券损益</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>杂损益</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>本期利益</t>
         </is>
       </c>
     </row>
@@ -818,96 +818,96 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>834223.78</v>
+        <v>250000</v>
       </c>
       <c r="W2" t="n">
-        <v>250000</v>
+        <v>89096</v>
       </c>
       <c r="X2" t="n">
-        <v>89096</v>
+        <v>407102.17</v>
       </c>
       <c r="Y2" t="n">
-        <v>407102.17</v>
+        <v>1822.03</v>
       </c>
       <c r="Z2" t="n">
-        <v>1822.03</v>
+        <v>9422.639999999999</v>
       </c>
       <c r="AA2" t="n">
-        <v>9422.639999999999</v>
+        <v>12958.88</v>
       </c>
       <c r="AB2" t="n">
-        <v>12958.88</v>
+        <v>14068</v>
       </c>
       <c r="AC2" t="n">
-        <v>14068</v>
+        <v>8559.33</v>
       </c>
       <c r="AD2" t="n">
-        <v>8559.33</v>
+        <v>947.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>947.8</v>
+        <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>14265.94</v>
       </c>
       <c r="AG2" t="n">
+        <v>16519.3</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9425.690000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11819.59</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
         <v>14265.94</v>
       </c>
-      <c r="AH2" t="n">
-        <v>16519.3</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9425.690000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>834223.78</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>11819.59</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>23399.43</v>
       </c>
       <c r="AN2" t="n">
-        <v>14265.94</v>
+        <v>4277.44</v>
       </c>
       <c r="AO2" t="n">
-        <v>28085.53</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>23399.43</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>4277.44</v>
-      </c>
-      <c r="AR2" t="n">
         <v>408.66</v>
       </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="n">
-        <v>28085.53</v>
-      </c>
+      <c r="AT2" t="inlineStr"/>
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
+      <c r="AZ2" t="n">
+        <v>834223.78</v>
+      </c>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="inlineStr"/>
+      <c r="BF2" t="n">
+        <v>834223.78</v>
+      </c>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
+      <c r="BH2" t="n">
+        <v>28085.53</v>
+      </c>
       <c r="BI2" t="inlineStr"/>
       <c r="BJ2" t="inlineStr"/>
       <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
+      <c r="BL2" t="n">
+        <v>28085.53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -986,96 +986,96 @@
         <v>17411.1</v>
       </c>
       <c r="V3" t="n">
-        <v>644175.42</v>
+        <v>250000</v>
       </c>
       <c r="W3" t="n">
-        <v>250000</v>
+        <v>63340</v>
       </c>
       <c r="X3" t="n">
-        <v>63340</v>
+        <v>221453.98</v>
       </c>
       <c r="Y3" t="n">
-        <v>221453.98</v>
+        <v>2203.99</v>
       </c>
       <c r="Z3" t="n">
-        <v>2203.99</v>
+        <v>4261.01</v>
       </c>
       <c r="AA3" t="n">
-        <v>4261.01</v>
+        <v>8354.719999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>8354.719999999999</v>
+        <v>15068</v>
       </c>
       <c r="AC3" t="n">
-        <v>15068</v>
+        <v>9059.33</v>
       </c>
       <c r="AD3" t="n">
-        <v>9059.33</v>
+        <v>783.02</v>
       </c>
       <c r="AE3" t="n">
-        <v>783.02</v>
+        <v>124</v>
       </c>
       <c r="AF3" t="n">
-        <v>124</v>
+        <v>14262.17</v>
       </c>
       <c r="AG3" t="n">
+        <v>3465.2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>51800</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10962.44</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
         <v>14262.17</v>
       </c>
-      <c r="AH3" t="n">
-        <v>3465.2</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>51800</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>644175.42</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10962.44</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>500</v>
-      </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>22656.83</v>
       </c>
       <c r="AN3" t="n">
-        <v>14262.17</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26724.61</v>
-      </c>
+        <v>3376.85</v>
+      </c>
+      <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="n">
-        <v>22656.83</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>3376.85</v>
-      </c>
+        <v>236.99</v>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="n">
-        <v>236.99</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>26724.61</v>
-      </c>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
+      <c r="AZ3" t="n">
+        <v>644175.42</v>
+      </c>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="inlineStr"/>
+      <c r="BF3" t="n">
+        <v>644175.42</v>
+      </c>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
+      <c r="BH3" t="n">
+        <v>26724.61</v>
+      </c>
       <c r="BI3" t="inlineStr"/>
       <c r="BJ3" t="inlineStr"/>
       <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
+      <c r="BL3" t="n">
+        <v>26724.61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1138,11 +1138,9 @@
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>4065281.98</v>
-      </c>
-      <c r="W4" t="n">
         <v>2000000</v>
       </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -1154,76 +1152,78 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
+      <c r="AI4" t="n">
+        <v>35458.8</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>35871.6</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>8776.32</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2559.76</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>322.18</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>486050.81</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1121623.6</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>25281.7</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>488100</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>55473.44</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>690874.87</v>
+      </c>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="n">
         <v>4065281.98</v>
       </c>
-      <c r="AK4" t="n">
-        <v>35458.8</v>
-      </c>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
+      <c r="BA4" t="n">
+        <v>488100</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1541310.38</v>
+      </c>
+      <c r="BC4" t="n">
         <v>35871.6</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="n">
+        <v>4065281.98</v>
+      </c>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="n">
         <v>71652.58</v>
       </c>
-      <c r="AP4" t="n">
-        <v>8776.32</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>2559.76</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>322.18</v>
-      </c>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="n">
+      <c r="BI4" t="n">
+        <v>6179.74</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>54136.76</v>
+      </c>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="n">
         <v>71652.58</v>
       </c>
-      <c r="AU4" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>486050.81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>1121623.6</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>25281.7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>488100</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>55473.44</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>690874.87</v>
-      </c>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="n">
-        <v>488100</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>1541310.38</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>35871.6</v>
-      </c>
-      <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="n">
-        <v>6179.74</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>54136.76</v>
-      </c>
-      <c r="BL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1286,11 +1286,9 @@
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>4389411.8</v>
-      </c>
-      <c r="W5" t="n">
         <v>2000000</v>
       </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1302,67 +1300,69 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>4389411.8</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AI5" t="n">
         <v>55820.53</v>
       </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="n">
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v>1328941.39</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>270400</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>31026.99</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>930338.41</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>424951.33</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>21457.63</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>4389411.8</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>270400</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="n">
+        <v>1517473.12</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>601538.6800000001</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>4389411.8</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>2970.1</v>
+      </c>
+      <c r="BH5" t="n">
         <v>58790.63</v>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="n">
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="n">
+        <v>37333</v>
+      </c>
+      <c r="BL5" t="n">
         <v>58790.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="n">
-        <v>1328941.39</v>
-      </c>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="n">
-        <v>270400</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>31026.99</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>930338.41</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>424951.33</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>21457.63</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>270400</v>
-      </c>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="inlineStr"/>
-      <c r="BG5" t="n">
-        <v>1517473.12</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>601538.6800000001</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>2970.1</v>
-      </c>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="n">
-        <v>37333</v>
       </c>
     </row>
   </sheetData>
